--- a/biology/Botanique/Trapaceae/Trapaceae.xlsx
+++ b/biology/Botanique/Trapaceae/Trapaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Trapaceae regroupe des plantes dicotylédones. Selon Watson &amp; Dallwitz elle comprend 30 espèces d'un seul genre : Trapa.
 Ce sont des plantes herbacées aquatiques annuelles, hétérophylles, plus ou moins nageantes, des régions tempérées chaudes à tropicales. L'aire de répartition couvre l'Eurasie, la Malaisie et l'Afrique.
@@ -513,11 +525,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le nom vient du genre Trapa qui, selon Théis est : 
-« Abrégé de calci-trapa, chausse-trape, machine de guerre à quatre pointes propre à arrêter la cavalerie. (en référence au) fruit du trapa commun, armé de quatre fortes épines.Chausse-trape vient de calx pied et trap, piège, en celtique, dont attrape, trappe etc. en français.Vulgairement ce fruit est appelé macre, qui est composé de ac, pointe en celtique toujours en raison de ses épines.En anglais caltrop, corrompu de calci-trapa[1]. »
+« Abrégé de calci-trapa, chausse-trape, machine de guerre à quatre pointes propre à arrêter la cavalerie. (en référence au) fruit du trapa commun, armé de quatre fortes épines.Chausse-trape vient de calx pied et trap, piège, en celtique, dont attrape, trappe etc. en français.Vulgairement ce fruit est appelé macre, qui est composé de ac, pointe en celtique toujours en raison de ses épines.En anglais caltrop, corrompu de calci-trapa. »
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le cadre de la classification phylogénétique APG III (2009)[2] la famille des Trapaceae n'existe plus et le genre Trapa fait maintenant partie de la famille des Lythraceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cadre de la classification phylogénétique APG III (2009) la famille des Trapaceae n'existe plus et le genre Trapa fait maintenant partie de la famille des Lythraceae.
 </t>
         </is>
       </c>
